--- a/Jogos_do_Dia/2023-08-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
   <si>
     <t>League</t>
   </si>
@@ -133,6 +133,12 @@
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>South America Copa Libertadores</t>
+  </si>
+  <si>
+    <t>USA MLS</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -145,24 +151,30 @@
     <t>19:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
     <t>Skeid</t>
   </si>
   <si>
     <t>Raufoss</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
     <t>Mjøndalen</t>
   </si>
   <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
     <t>KFUM</t>
   </si>
   <si>
-    <t>Kongsvinger</t>
-  </si>
-  <si>
     <t>Bryne</t>
   </si>
   <si>
@@ -175,15 +187,15 @@
     <t>Erzgebirge Aue</t>
   </si>
   <si>
+    <t>Saarbrucken</t>
+  </si>
+  <si>
+    <t>Viktoria Köln</t>
+  </si>
+  <si>
     <t>Jahn Regensburg</t>
   </si>
   <si>
-    <t>Viktoria Köln</t>
-  </si>
-  <si>
-    <t>Saarbrucken</t>
-  </si>
-  <si>
     <t>Maccabi Haifa</t>
   </si>
   <si>
@@ -196,24 +208,36 @@
     <t>CRB</t>
   </si>
   <si>
+    <t>Deportivo Pereira</t>
+  </si>
+  <si>
+    <t>Boca Juniors</t>
+  </si>
+  <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>Åsane</t>
+  </si>
+  <si>
     <t>Ranheim</t>
   </si>
   <si>
     <t>Sogndal</t>
   </si>
   <si>
-    <t>Åsane</t>
-  </si>
-  <si>
     <t>Jerv</t>
   </si>
   <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
     <t>Hødd</t>
   </si>
   <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
     <t>Moss</t>
   </si>
   <si>
@@ -226,15 +250,15 @@
     <t>Sandhausen</t>
   </si>
   <si>
+    <t>Verl</t>
+  </si>
+  <si>
+    <t>Rot-Weiss Essen</t>
+  </si>
+  <si>
     <t>Borussia Dortmund II</t>
   </si>
   <si>
-    <t>Rot-Weiss Essen</t>
-  </si>
-  <si>
-    <t>Verl</t>
-  </si>
-  <si>
     <t>Young Boys</t>
   </si>
   <si>
@@ -245,6 +269,18 @@
   </si>
   <si>
     <t>Avaí</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
   </si>
 </sst>
 </file>
@@ -606,7 +642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -727,25 +763,25 @@
         <v>45161</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="G2">
-        <v>2.32</v>
+        <v>1.55</v>
       </c>
       <c r="H2">
-        <v>3.66</v>
+        <v>4.1</v>
       </c>
       <c r="I2">
-        <v>2.72</v>
+        <v>4.7</v>
       </c>
       <c r="J2">
         <v>1.02</v>
@@ -754,76 +790,76 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M2">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N2">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="O2">
-        <v>2.45</v>
+        <v>2.81</v>
       </c>
       <c r="P2">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="Q2">
-        <v>3.5</v>
+        <v>3.64</v>
       </c>
       <c r="R2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S2">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T2">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="U2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V2">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="W2">
-        <v>0.5600000000000001</v>
+        <v>2.44</v>
       </c>
       <c r="X2">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="Y2">
-        <v>1.22</v>
+        <v>1.76</v>
       </c>
       <c r="Z2">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AA2">
-        <v>2.36</v>
+        <v>3.03</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF2">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AG2">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AH2">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="AI2">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -834,103 +870,103 @@
         <v>45161</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G3">
-        <v>2.35</v>
+        <v>2.49</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="I3">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="J3">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L3">
+        <v>1.17</v>
+      </c>
+      <c r="M3">
+        <v>4.5</v>
+      </c>
+      <c r="N3">
+        <v>1.42</v>
+      </c>
+      <c r="O3">
+        <v>2.65</v>
+      </c>
+      <c r="P3">
+        <v>1.29</v>
+      </c>
+      <c r="Q3">
+        <v>3.5</v>
+      </c>
+      <c r="R3">
+        <v>1.5</v>
+      </c>
+      <c r="S3">
+        <v>2.5</v>
+      </c>
+      <c r="T3">
+        <v>1.5</v>
+      </c>
+      <c r="U3">
         <v>1.25</v>
-      </c>
-      <c r="M3">
-        <v>3.75</v>
-      </c>
-      <c r="N3">
-        <v>1.67</v>
-      </c>
-      <c r="O3">
-        <v>2.05</v>
-      </c>
-      <c r="P3">
-        <v>1.33</v>
-      </c>
-      <c r="Q3">
-        <v>3.25</v>
-      </c>
-      <c r="R3">
-        <v>1.62</v>
-      </c>
-      <c r="S3">
-        <v>2.2</v>
-      </c>
-      <c r="T3">
-        <v>1.44</v>
-      </c>
-      <c r="U3">
-        <v>1.29</v>
       </c>
       <c r="V3">
         <v>1.53</v>
       </c>
       <c r="W3">
-        <v>1.67</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X3">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="Y3">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="Z3">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="AA3">
-        <v>3.08</v>
+        <v>2.36</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AG3">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AH3">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AI3">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -941,103 +977,103 @@
         <v>45161</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="G4">
-        <v>1.57</v>
+        <v>2.43</v>
       </c>
       <c r="H4">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>2.55</v>
       </c>
       <c r="J4">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="M4">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N4">
+        <v>1.5</v>
+      </c>
+      <c r="O4">
+        <v>2.41</v>
+      </c>
+      <c r="P4">
+        <v>1.33</v>
+      </c>
+      <c r="Q4">
+        <v>3.25</v>
+      </c>
+      <c r="R4">
+        <v>1.62</v>
+      </c>
+      <c r="S4">
+        <v>2.2</v>
+      </c>
+      <c r="T4">
+        <v>1.44</v>
+      </c>
+      <c r="U4">
+        <v>1.29</v>
+      </c>
+      <c r="V4">
         <v>1.53</v>
       </c>
-      <c r="O4">
-        <v>2.45</v>
-      </c>
-      <c r="P4">
-        <v>1.26</v>
-      </c>
-      <c r="Q4">
-        <v>3.64</v>
-      </c>
-      <c r="R4">
+      <c r="W4">
+        <v>1.67</v>
+      </c>
+      <c r="X4">
+        <v>1.4</v>
+      </c>
+      <c r="Y4">
+        <v>1.48</v>
+      </c>
+      <c r="Z4">
         <v>1.6</v>
       </c>
-      <c r="S4">
-        <v>2.25</v>
-      </c>
-      <c r="T4">
-        <v>1.18</v>
-      </c>
-      <c r="U4">
-        <v>1.22</v>
-      </c>
-      <c r="V4">
-        <v>2.15</v>
-      </c>
-      <c r="W4">
-        <v>2.44</v>
-      </c>
-      <c r="X4">
-        <v>0.7</v>
-      </c>
-      <c r="Y4">
-        <v>1.76</v>
-      </c>
-      <c r="Z4">
-        <v>1.27</v>
-      </c>
       <c r="AA4">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <v>1.55</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>1.18</v>
-      </c>
       <c r="AF4">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AG4">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AH4">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="AI4">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1048,25 +1084,25 @@
         <v>45161</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G5">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I5">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="J5">
         <v>1.05</v>
@@ -1081,10 +1117,10 @@
         <v>3.75</v>
       </c>
       <c r="N5">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="O5">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="P5">
         <v>1.33</v>
@@ -1123,13 +1159,13 @@
         <v>2.57</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -1155,103 +1191,103 @@
         <v>45161</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G6">
-        <v>1.49</v>
+        <v>2.31</v>
       </c>
       <c r="H6">
-        <v>4.24</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>5.69</v>
+        <v>2.8</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L6">
+        <v>1.33</v>
+      </c>
+      <c r="M6">
+        <v>3.25</v>
+      </c>
+      <c r="N6">
+        <v>1.87</v>
+      </c>
+      <c r="O6">
+        <v>1.83</v>
+      </c>
+      <c r="P6">
+        <v>1.4</v>
+      </c>
+      <c r="Q6">
+        <v>2.75</v>
+      </c>
+      <c r="R6">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>1.91</v>
+      </c>
+      <c r="T6">
+        <v>1.35</v>
+      </c>
+      <c r="U6">
+        <v>1.32</v>
+      </c>
+      <c r="V6">
+        <v>1.65</v>
+      </c>
+      <c r="W6">
+        <v>2.33</v>
+      </c>
+      <c r="X6">
+        <v>1.78</v>
+      </c>
+      <c r="Y6">
+        <v>1.67</v>
+      </c>
+      <c r="Z6">
         <v>1.25</v>
       </c>
-      <c r="M6">
-        <v>3.75</v>
-      </c>
-      <c r="N6">
-        <v>1.73</v>
-      </c>
-      <c r="O6">
-        <v>1.91</v>
-      </c>
-      <c r="P6">
-        <v>1.36</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>1.9</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>1.15</v>
-      </c>
-      <c r="U6">
-        <v>1.22</v>
-      </c>
-      <c r="V6">
-        <v>2.5</v>
-      </c>
-      <c r="W6">
-        <v>2.22</v>
-      </c>
-      <c r="X6">
-        <v>0.78</v>
-      </c>
-      <c r="Y6">
-        <v>1.45</v>
-      </c>
-      <c r="Z6">
-        <v>1.03</v>
-      </c>
       <c r="AA6">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="AB6">
+        <v>1.88</v>
+      </c>
+      <c r="AC6">
+        <v>7.5</v>
+      </c>
+      <c r="AD6">
+        <v>2.3</v>
+      </c>
+      <c r="AE6">
         <v>0</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>1.18</v>
-      </c>
       <c r="AF6">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AG6">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AH6">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="AI6">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1262,103 +1298,103 @@
         <v>45161</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <v>2.3</v>
+        <v>1.51</v>
       </c>
       <c r="H7">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>2.75</v>
+        <v>5.4</v>
       </c>
       <c r="J7">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>1.25</v>
+      </c>
+      <c r="M7">
+        <v>3.75</v>
+      </c>
+      <c r="N7">
+        <v>1.75</v>
+      </c>
+      <c r="O7">
+        <v>1.96</v>
+      </c>
+      <c r="P7">
+        <v>1.36</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.85</v>
+      </c>
+      <c r="T7">
+        <v>1.15</v>
+      </c>
+      <c r="U7">
+        <v>1.22</v>
+      </c>
+      <c r="V7">
+        <v>2.5</v>
+      </c>
+      <c r="W7">
+        <v>2.22</v>
+      </c>
+      <c r="X7">
+        <v>0.78</v>
+      </c>
+      <c r="Y7">
+        <v>1.45</v>
+      </c>
+      <c r="Z7">
+        <v>1.03</v>
+      </c>
+      <c r="AA7">
+        <v>2.48</v>
+      </c>
+      <c r="AB7">
+        <v>1.38</v>
+      </c>
+      <c r="AC7">
         <v>8</v>
       </c>
-      <c r="L7">
-        <v>1.33</v>
-      </c>
-      <c r="M7">
-        <v>3.25</v>
-      </c>
-      <c r="N7">
-        <v>1.83</v>
-      </c>
-      <c r="O7">
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <v>1.4</v>
-      </c>
-      <c r="Q7">
-        <v>2.75</v>
-      </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>1.91</v>
-      </c>
-      <c r="T7">
-        <v>1.35</v>
-      </c>
-      <c r="U7">
-        <v>1.32</v>
-      </c>
-      <c r="V7">
-        <v>1.65</v>
-      </c>
-      <c r="W7">
-        <v>2.33</v>
-      </c>
-      <c r="X7">
-        <v>1.78</v>
-      </c>
-      <c r="Y7">
-        <v>1.67</v>
-      </c>
-      <c r="Z7">
-        <v>1.25</v>
-      </c>
-      <c r="AA7">
-        <v>2.92</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF7">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="AG7">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AH7">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="AI7">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1369,25 +1405,25 @@
         <v>45161</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>2.05</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I8">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1405,7 +1441,7 @@
         <v>1.7</v>
       </c>
       <c r="O8">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="P8">
         <v>1.36</v>
@@ -1444,13 +1480,13 @@
         <v>2.76</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE8">
         <v>1.2</v>
@@ -1476,25 +1512,25 @@
         <v>45161</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G9">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="H9">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I9">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J9">
         <v>1.03</v>
@@ -1509,10 +1545,10 @@
         <v>4.72</v>
       </c>
       <c r="N9">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="O9">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="P9">
         <v>1.28</v>
@@ -1551,13 +1587,13 @@
         <v>3.07</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -1583,25 +1619,25 @@
         <v>45161</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G10">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="H10">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="I10">
-        <v>3.37</v>
+        <v>4.4</v>
       </c>
       <c r="J10">
         <v>1.04</v>
@@ -1616,10 +1652,10 @@
         <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="O10">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="P10">
         <v>1.34</v>
@@ -1658,13 +1694,13 @@
         <v>2.21</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AE10">
         <v>1.21</v>
@@ -1690,25 +1726,25 @@
         <v>45161</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="H11">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I11">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1726,7 +1762,7 @@
         <v>1.7</v>
       </c>
       <c r="O11">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P11">
         <v>1.32</v>
@@ -1765,16 +1801,16 @@
         <v>3</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF11">
         <v>1.28</v>
@@ -1797,25 +1833,25 @@
         <v>45161</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G12">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="H12">
-        <v>3.84</v>
+        <v>3.85</v>
       </c>
       <c r="I12">
-        <v>3.89</v>
+        <v>4.4</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1824,76 +1860,76 @@
         <v>11.5</v>
       </c>
       <c r="L12">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M12">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="O12">
-        <v>2.23</v>
+        <v>2.36</v>
       </c>
       <c r="P12">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Q12">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R12">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S12">
         <v>2.05</v>
       </c>
       <c r="T12">
+        <v>1.18</v>
+      </c>
+      <c r="U12">
         <v>1.24</v>
       </c>
-      <c r="U12">
-        <v>1.25</v>
-      </c>
       <c r="V12">
+        <v>2.15</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>2.2</v>
+      </c>
+      <c r="Z12">
+        <v>1.36</v>
+      </c>
+      <c r="AA12">
+        <v>3.56</v>
+      </c>
+      <c r="AB12">
+        <v>1.58</v>
+      </c>
+      <c r="AC12">
+        <v>9.6</v>
+      </c>
+      <c r="AD12">
+        <v>2.71</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1.26</v>
+      </c>
+      <c r="AG12">
+        <v>1.47</v>
+      </c>
+      <c r="AH12">
         <v>1.93</v>
       </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
-      <c r="Y12">
-        <v>2.19</v>
-      </c>
-      <c r="Z12">
-        <v>0.59</v>
-      </c>
-      <c r="AA12">
-        <v>2.78</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>1.21</v>
-      </c>
-      <c r="AF12">
-        <v>1.4</v>
-      </c>
-      <c r="AG12">
-        <v>1.71</v>
-      </c>
-      <c r="AH12">
-        <v>2.2</v>
-      </c>
       <c r="AI12">
-        <v>3</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1904,25 +1940,25 @@
         <v>45161</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G13">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H13">
-        <v>3.62</v>
+        <v>3.45</v>
       </c>
       <c r="I13">
-        <v>3.07</v>
+        <v>2.95</v>
       </c>
       <c r="J13">
         <v>1.04</v>
@@ -1937,10 +1973,10 @@
         <v>3.8</v>
       </c>
       <c r="N13">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="P13">
         <v>1.33</v>
@@ -1979,13 +2015,13 @@
         <v>3.18</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AE13">
         <v>1.24</v>
@@ -2011,25 +2047,25 @@
         <v>45161</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="G14">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H14">
-        <v>4.15</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2038,76 +2074,76 @@
         <v>11.5</v>
       </c>
       <c r="L14">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M14">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N14">
         <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P14">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q14">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="R14">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="S14">
         <v>2.05</v>
       </c>
       <c r="T14">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="U14">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="V14">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
+        <v>2.19</v>
+      </c>
+      <c r="Z14">
+        <v>0.59</v>
+      </c>
+      <c r="AA14">
+        <v>2.78</v>
+      </c>
+      <c r="AB14">
+        <v>1.53</v>
+      </c>
+      <c r="AC14">
+        <v>9.1</v>
+      </c>
+      <c r="AD14">
+        <v>2.92</v>
+      </c>
+      <c r="AE14">
+        <v>1.21</v>
+      </c>
+      <c r="AF14">
+        <v>1.4</v>
+      </c>
+      <c r="AG14">
+        <v>1.71</v>
+      </c>
+      <c r="AH14">
         <v>2.2</v>
       </c>
-      <c r="Z14">
-        <v>1.36</v>
-      </c>
-      <c r="AA14">
-        <v>3.56</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>1.26</v>
-      </c>
-      <c r="AG14">
-        <v>1.47</v>
-      </c>
-      <c r="AH14">
-        <v>1.93</v>
-      </c>
       <c r="AI14">
-        <v>2.35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2118,25 +2154,25 @@
         <v>45161</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G15">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="H15">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="I15">
-        <v>2.9</v>
+        <v>3.07</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2151,10 +2187,10 @@
         <v>3.9</v>
       </c>
       <c r="N15">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="O15">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="P15">
         <v>1.33</v>
@@ -2225,25 +2261,25 @@
         <v>45161</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G16">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H16">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="I16">
-        <v>4.95</v>
+        <v>5.72</v>
       </c>
       <c r="J16">
         <v>1.07</v>
@@ -2258,10 +2294,10 @@
         <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O16">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P16">
         <v>1.44</v>
@@ -2332,25 +2368,25 @@
         <v>45161</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>3.48</v>
       </c>
       <c r="I17">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="J17">
         <v>1.04</v>
@@ -2365,10 +2401,10 @@
         <v>3.75</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="O17">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="P17">
         <v>1.36</v>
@@ -2439,25 +2475,25 @@
         <v>45161</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="H18">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I18">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>1.1</v>
@@ -2466,16 +2502,16 @@
         <v>6.5</v>
       </c>
       <c r="L18">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="N18">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="O18">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="P18">
         <v>1.47</v>
@@ -2536,6 +2572,434 @@
       </c>
       <c r="AI18">
         <v>2.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19">
+        <v>3.94</v>
+      </c>
+      <c r="H19">
+        <v>3.25</v>
+      </c>
+      <c r="I19">
+        <v>1.8</v>
+      </c>
+      <c r="J19">
+        <v>1.06</v>
+      </c>
+      <c r="K19">
+        <v>8.6</v>
+      </c>
+      <c r="L19">
+        <v>1.39</v>
+      </c>
+      <c r="M19">
+        <v>2.91</v>
+      </c>
+      <c r="N19">
+        <v>2.16</v>
+      </c>
+      <c r="O19">
+        <v>1.62</v>
+      </c>
+      <c r="P19">
+        <v>1.44</v>
+      </c>
+      <c r="Q19">
+        <v>2.63</v>
+      </c>
+      <c r="R19">
+        <v>2.05</v>
+      </c>
+      <c r="S19">
+        <v>1.7</v>
+      </c>
+      <c r="T19">
+        <v>1.98</v>
+      </c>
+      <c r="U19">
+        <v>1.29</v>
+      </c>
+      <c r="V19">
+        <v>1.19</v>
+      </c>
+      <c r="W19">
+        <v>1.5</v>
+      </c>
+      <c r="X19">
+        <v>2.38</v>
+      </c>
+      <c r="Y19">
+        <v>1.73</v>
+      </c>
+      <c r="Z19">
+        <v>1.51</v>
+      </c>
+      <c r="AA19">
+        <v>3.24</v>
+      </c>
+      <c r="AB19">
+        <v>2.89</v>
+      </c>
+      <c r="AC19">
+        <v>8.5</v>
+      </c>
+      <c r="AD19">
+        <v>1.59</v>
+      </c>
+      <c r="AE19">
+        <v>1.2</v>
+      </c>
+      <c r="AF19">
+        <v>1.4</v>
+      </c>
+      <c r="AG19">
+        <v>1.72</v>
+      </c>
+      <c r="AH19">
+        <v>2.16</v>
+      </c>
+      <c r="AI19">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20">
+        <v>1.79</v>
+      </c>
+      <c r="H20">
+        <v>3.06</v>
+      </c>
+      <c r="I20">
+        <v>4.34</v>
+      </c>
+      <c r="J20">
+        <v>1.09</v>
+      </c>
+      <c r="K20">
+        <v>6.83</v>
+      </c>
+      <c r="L20">
+        <v>1.53</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.46</v>
+      </c>
+      <c r="O20">
+        <v>1.49</v>
+      </c>
+      <c r="P20">
+        <v>1.57</v>
+      </c>
+      <c r="Q20">
+        <v>2.25</v>
+      </c>
+      <c r="R20">
+        <v>2.2</v>
+      </c>
+      <c r="S20">
+        <v>1.62</v>
+      </c>
+      <c r="T20">
+        <v>1.23</v>
+      </c>
+      <c r="U20">
+        <v>1.33</v>
+      </c>
+      <c r="V20">
+        <v>1.78</v>
+      </c>
+      <c r="W20">
+        <v>1.88</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>1.88</v>
+      </c>
+      <c r="Z20">
+        <v>1.25</v>
+      </c>
+      <c r="AA20">
+        <v>3.13</v>
+      </c>
+      <c r="AB20">
+        <v>1.58</v>
+      </c>
+      <c r="AC20">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD20">
+        <v>2.9</v>
+      </c>
+      <c r="AE20">
+        <v>1.26</v>
+      </c>
+      <c r="AF20">
+        <v>1.51</v>
+      </c>
+      <c r="AG20">
+        <v>1.89</v>
+      </c>
+      <c r="AH20">
+        <v>2.44</v>
+      </c>
+      <c r="AI20">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21">
+        <v>2.03</v>
+      </c>
+      <c r="H21">
+        <v>2.9</v>
+      </c>
+      <c r="I21">
+        <v>3.8</v>
+      </c>
+      <c r="J21">
+        <v>1.09</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>1.62</v>
+      </c>
+      <c r="M21">
+        <v>2.3</v>
+      </c>
+      <c r="N21">
+        <v>2.75</v>
+      </c>
+      <c r="O21">
+        <v>1.4</v>
+      </c>
+      <c r="P21">
+        <v>1.55</v>
+      </c>
+      <c r="Q21">
+        <v>2.3</v>
+      </c>
+      <c r="R21">
+        <v>2.15</v>
+      </c>
+      <c r="S21">
+        <v>1.61</v>
+      </c>
+      <c r="T21">
+        <v>1.27</v>
+      </c>
+      <c r="U21">
+        <v>1.36</v>
+      </c>
+      <c r="V21">
+        <v>1.66</v>
+      </c>
+      <c r="W21">
+        <v>1.55</v>
+      </c>
+      <c r="X21">
+        <v>0.82</v>
+      </c>
+      <c r="Y21">
+        <v>1.52</v>
+      </c>
+      <c r="Z21">
+        <v>1.3</v>
+      </c>
+      <c r="AA21">
+        <v>2.82</v>
+      </c>
+      <c r="AB21">
+        <v>1.62</v>
+      </c>
+      <c r="AC21">
+        <v>7.5</v>
+      </c>
+      <c r="AD21">
+        <v>2.88</v>
+      </c>
+      <c r="AE21">
+        <v>1.18</v>
+      </c>
+      <c r="AF21">
+        <v>1.31</v>
+      </c>
+      <c r="AG21">
+        <v>1.65</v>
+      </c>
+      <c r="AH21">
+        <v>2.01</v>
+      </c>
+      <c r="AI21">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22">
+        <v>1.46</v>
+      </c>
+      <c r="H22">
+        <v>4.58</v>
+      </c>
+      <c r="I22">
+        <v>6.1</v>
+      </c>
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>17</v>
+      </c>
+      <c r="L22">
+        <v>1.18</v>
+      </c>
+      <c r="M22">
+        <v>4.75</v>
+      </c>
+      <c r="N22">
+        <v>1.62</v>
+      </c>
+      <c r="O22">
+        <v>2.31</v>
+      </c>
+      <c r="P22">
+        <v>1.3</v>
+      </c>
+      <c r="Q22">
+        <v>3.4</v>
+      </c>
+      <c r="R22">
+        <v>1.8</v>
+      </c>
+      <c r="S22">
+        <v>1.95</v>
+      </c>
+      <c r="T22">
+        <v>1.1</v>
+      </c>
+      <c r="U22">
+        <v>1.18</v>
+      </c>
+      <c r="V22">
+        <v>2.7</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>0.82</v>
+      </c>
+      <c r="Y22">
+        <v>1.87</v>
+      </c>
+      <c r="Z22">
+        <v>1.1</v>
+      </c>
+      <c r="AA22">
+        <v>2.97</v>
+      </c>
+      <c r="AB22">
+        <v>1.38</v>
+      </c>
+      <c r="AC22">
+        <v>8.5</v>
+      </c>
+      <c r="AD22">
+        <v>3.75</v>
+      </c>
+      <c r="AE22">
+        <v>1.24</v>
+      </c>
+      <c r="AF22">
+        <v>1.47</v>
+      </c>
+      <c r="AG22">
+        <v>1.81</v>
+      </c>
+      <c r="AH22">
+        <v>2.25</v>
+      </c>
+      <c r="AI22">
+        <v>2.95</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -157,42 +157,42 @@
     <t>23:30:00</t>
   </si>
   <si>
+    <t>Bryne</t>
+  </si>
+  <si>
+    <t>KFUM</t>
+  </si>
+  <si>
+    <t>Kongsvinger</t>
+  </si>
+  <si>
+    <t>Kristiansund</t>
+  </si>
+  <si>
+    <t>Mjøndalen</t>
+  </si>
+  <si>
+    <t>Raufoss</t>
+  </si>
+  <si>
+    <t>Skeid</t>
+  </si>
+  <si>
     <t>Start</t>
   </si>
   <si>
-    <t>Skeid</t>
-  </si>
-  <si>
-    <t>Raufoss</t>
-  </si>
-  <si>
-    <t>Mjøndalen</t>
-  </si>
-  <si>
-    <t>Kongsvinger</t>
-  </si>
-  <si>
-    <t>KFUM</t>
-  </si>
-  <si>
-    <t>Bryne</t>
-  </si>
-  <si>
-    <t>Kristiansund</t>
+    <t>Erzgebirge Aue</t>
+  </si>
+  <si>
+    <t>Viktoria Köln</t>
+  </si>
+  <si>
+    <t>Saarbrucken</t>
   </si>
   <si>
     <t>Freiburg II</t>
   </si>
   <si>
-    <t>Erzgebirge Aue</t>
-  </si>
-  <si>
-    <t>Saarbrucken</t>
-  </si>
-  <si>
-    <t>Viktoria Köln</t>
-  </si>
-  <si>
     <t>Jahn Regensburg</t>
   </si>
   <si>
@@ -211,51 +211,51 @@
     <t>Deportivo Pereira</t>
   </si>
   <si>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
     <t>Los Angeles FC</t>
   </si>
   <si>
+    <t>Moss</t>
+  </si>
+  <si>
+    <t>Hødd</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Sandnes Ulf</t>
+  </si>
+  <si>
+    <t>Jerv</t>
+  </si>
+  <si>
+    <t>Sogndal</t>
+  </si>
+  <si>
+    <t>Ranheim</t>
+  </si>
+  <si>
     <t>Åsane</t>
   </si>
   <si>
-    <t>Ranheim</t>
-  </si>
-  <si>
-    <t>Sogndal</t>
-  </si>
-  <si>
-    <t>Jerv</t>
-  </si>
-  <si>
-    <t>Fredrikstad</t>
-  </si>
-  <si>
-    <t>Hødd</t>
-  </si>
-  <si>
-    <t>Moss</t>
-  </si>
-  <si>
-    <t>Sandnes Ulf</t>
+    <t>Sandhausen</t>
+  </si>
+  <si>
+    <t>Rot-Weiss Essen</t>
+  </si>
+  <si>
+    <t>Verl</t>
   </si>
   <si>
     <t>Unterhaching</t>
   </si>
   <si>
-    <t>Sandhausen</t>
-  </si>
-  <si>
-    <t>Verl</t>
-  </si>
-  <si>
-    <t>Rot-Weiss Essen</t>
-  </si>
-  <si>
     <t>Borussia Dortmund II</t>
   </si>
   <si>
@@ -274,10 +274,10 @@
     <t>Palmeiras</t>
   </si>
   <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
     <t>Racing Club</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
   </si>
   <si>
     <t>Colorado Rapids</t>
@@ -775,91 +775,91 @@
         <v>68</v>
       </c>
       <c r="G2">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="H2">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="I2">
-        <v>4.7</v>
+        <v>2.95</v>
       </c>
       <c r="J2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="M2">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
+        <v>1.75</v>
+      </c>
+      <c r="O2">
+        <v>1.95</v>
+      </c>
+      <c r="P2">
+        <v>1.36</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>1.67</v>
+      </c>
+      <c r="S2">
+        <v>2.1</v>
+      </c>
+      <c r="T2">
+        <v>1.4</v>
+      </c>
+      <c r="U2">
+        <v>1.3</v>
+      </c>
+      <c r="V2">
+        <v>1.53</v>
+      </c>
+      <c r="W2">
+        <v>1.8</v>
+      </c>
+      <c r="X2">
+        <v>0.78</v>
+      </c>
+      <c r="Y2">
+        <v>1.37</v>
+      </c>
+      <c r="Z2">
+        <v>1.39</v>
+      </c>
+      <c r="AA2">
+        <v>2.76</v>
+      </c>
+      <c r="AB2">
+        <v>1.8</v>
+      </c>
+      <c r="AC2">
+        <v>7</v>
+      </c>
+      <c r="AD2">
+        <v>2.5</v>
+      </c>
+      <c r="AE2">
+        <v>1.2</v>
+      </c>
+      <c r="AF2">
         <v>1.38</v>
       </c>
-      <c r="O2">
-        <v>2.81</v>
-      </c>
-      <c r="P2">
-        <v>1.26</v>
-      </c>
-      <c r="Q2">
-        <v>3.64</v>
-      </c>
-      <c r="R2">
-        <v>1.6</v>
-      </c>
-      <c r="S2">
-        <v>2.25</v>
-      </c>
-      <c r="T2">
-        <v>1.18</v>
-      </c>
-      <c r="U2">
-        <v>1.22</v>
-      </c>
-      <c r="V2">
-        <v>2.15</v>
-      </c>
-      <c r="W2">
-        <v>2.44</v>
-      </c>
-      <c r="X2">
-        <v>0.7</v>
-      </c>
-      <c r="Y2">
-        <v>1.76</v>
-      </c>
-      <c r="Z2">
-        <v>1.27</v>
-      </c>
-      <c r="AA2">
-        <v>3.03</v>
-      </c>
-      <c r="AB2">
-        <v>1.38</v>
-      </c>
-      <c r="AC2">
-        <v>8</v>
-      </c>
-      <c r="AD2">
-        <v>4</v>
-      </c>
-      <c r="AE2">
-        <v>1.18</v>
-      </c>
-      <c r="AF2">
-        <v>1.34</v>
-      </c>
       <c r="AG2">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="AH2">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="AI2">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -882,91 +882,91 @@
         <v>69</v>
       </c>
       <c r="G3">
-        <v>2.49</v>
+        <v>1.45</v>
       </c>
       <c r="H3">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="M3">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="O3">
+        <v>1.95</v>
+      </c>
+      <c r="P3">
+        <v>1.36</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.85</v>
+      </c>
+      <c r="T3">
+        <v>1.15</v>
+      </c>
+      <c r="U3">
+        <v>1.22</v>
+      </c>
+      <c r="V3">
+        <v>2.5</v>
+      </c>
+      <c r="W3">
+        <v>2.22</v>
+      </c>
+      <c r="X3">
+        <v>0.78</v>
+      </c>
+      <c r="Y3">
+        <v>1.45</v>
+      </c>
+      <c r="Z3">
+        <v>1.03</v>
+      </c>
+      <c r="AA3">
+        <v>2.48</v>
+      </c>
+      <c r="AB3">
+        <v>1.38</v>
+      </c>
+      <c r="AC3">
+        <v>8</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>1.18</v>
+      </c>
+      <c r="AF3">
+        <v>1.34</v>
+      </c>
+      <c r="AG3">
+        <v>1.61</v>
+      </c>
+      <c r="AH3">
+        <v>2.02</v>
+      </c>
+      <c r="AI3">
         <v>2.65</v>
-      </c>
-      <c r="P3">
-        <v>1.29</v>
-      </c>
-      <c r="Q3">
-        <v>3.5</v>
-      </c>
-      <c r="R3">
-        <v>1.5</v>
-      </c>
-      <c r="S3">
-        <v>2.5</v>
-      </c>
-      <c r="T3">
-        <v>1.5</v>
-      </c>
-      <c r="U3">
-        <v>1.25</v>
-      </c>
-      <c r="V3">
-        <v>1.53</v>
-      </c>
-      <c r="W3">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="X3">
-        <v>1.1</v>
-      </c>
-      <c r="Y3">
-        <v>1.22</v>
-      </c>
-      <c r="Z3">
-        <v>1.14</v>
-      </c>
-      <c r="AA3">
-        <v>2.36</v>
-      </c>
-      <c r="AB3">
-        <v>2.06</v>
-      </c>
-      <c r="AC3">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>1.27</v>
-      </c>
-      <c r="AG3">
-        <v>1.48</v>
-      </c>
-      <c r="AH3">
-        <v>1.85</v>
-      </c>
-      <c r="AI3">
-        <v>2.35</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -989,76 +989,76 @@
         <v>70</v>
       </c>
       <c r="G4">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I4">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="J4">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L4">
+        <v>1.33</v>
+      </c>
+      <c r="M4">
+        <v>3.25</v>
+      </c>
+      <c r="N4">
+        <v>1.85</v>
+      </c>
+      <c r="O4">
+        <v>1.85</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>1.91</v>
+      </c>
+      <c r="T4">
+        <v>1.35</v>
+      </c>
+      <c r="U4">
+        <v>1.32</v>
+      </c>
+      <c r="V4">
+        <v>1.65</v>
+      </c>
+      <c r="W4">
+        <v>2.33</v>
+      </c>
+      <c r="X4">
+        <v>1.78</v>
+      </c>
+      <c r="Y4">
+        <v>1.67</v>
+      </c>
+      <c r="Z4">
         <v>1.25</v>
       </c>
-      <c r="M4">
-        <v>3.75</v>
-      </c>
-      <c r="N4">
-        <v>1.5</v>
-      </c>
-      <c r="O4">
-        <v>2.41</v>
-      </c>
-      <c r="P4">
-        <v>1.33</v>
-      </c>
-      <c r="Q4">
-        <v>3.25</v>
-      </c>
-      <c r="R4">
-        <v>1.62</v>
-      </c>
-      <c r="S4">
-        <v>2.2</v>
-      </c>
-      <c r="T4">
-        <v>1.44</v>
-      </c>
-      <c r="U4">
-        <v>1.29</v>
-      </c>
-      <c r="V4">
-        <v>1.53</v>
-      </c>
-      <c r="W4">
-        <v>1.67</v>
-      </c>
-      <c r="X4">
-        <v>1.4</v>
-      </c>
-      <c r="Y4">
-        <v>1.48</v>
-      </c>
-      <c r="Z4">
-        <v>1.6</v>
-      </c>
       <c r="AA4">
-        <v>3.08</v>
+        <v>2.92</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="AC4">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD4">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1096,91 +1096,91 @@
         <v>71</v>
       </c>
       <c r="G5">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="H5">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="I5">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="J5">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>17.5</v>
       </c>
       <c r="L5">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="M5">
-        <v>3.75</v>
+        <v>4.72</v>
       </c>
       <c r="N5">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="O5">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="P5">
+        <v>1.28</v>
+      </c>
+      <c r="Q5">
+        <v>3.4</v>
+      </c>
+      <c r="R5">
+        <v>1.67</v>
+      </c>
+      <c r="S5">
+        <v>2.1</v>
+      </c>
+      <c r="T5">
+        <v>1.2</v>
+      </c>
+      <c r="U5">
+        <v>1.24</v>
+      </c>
+      <c r="V5">
+        <v>2.2</v>
+      </c>
+      <c r="W5">
+        <v>2.3</v>
+      </c>
+      <c r="X5">
+        <v>1.38</v>
+      </c>
+      <c r="Y5">
+        <v>1.74</v>
+      </c>
+      <c r="Z5">
         <v>1.33</v>
       </c>
-      <c r="Q5">
-        <v>3.25</v>
-      </c>
-      <c r="R5">
-        <v>1.62</v>
-      </c>
-      <c r="S5">
-        <v>2.2</v>
-      </c>
-      <c r="T5">
-        <v>1.44</v>
-      </c>
-      <c r="U5">
-        <v>1.29</v>
-      </c>
-      <c r="V5">
-        <v>1.5</v>
-      </c>
-      <c r="W5">
-        <v>0.9</v>
-      </c>
-      <c r="X5">
-        <v>1.11</v>
-      </c>
-      <c r="Y5">
-        <v>1.18</v>
-      </c>
-      <c r="Z5">
-        <v>1.39</v>
-      </c>
       <c r="AA5">
-        <v>2.57</v>
+        <v>3.07</v>
       </c>
       <c r="AB5">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="AC5">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD5">
-        <v>2.26</v>
+        <v>3.14</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="AG5">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AH5">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AI5">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1203,91 +1203,91 @@
         <v>72</v>
       </c>
       <c r="G6">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I6">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="J6">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6">
+        <v>1.25</v>
+      </c>
+      <c r="M6">
+        <v>3.75</v>
+      </c>
+      <c r="N6">
+        <v>1.55</v>
+      </c>
+      <c r="O6">
+        <v>2.3</v>
+      </c>
+      <c r="P6">
         <v>1.33</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>3.25</v>
       </c>
-      <c r="N6">
-        <v>1.87</v>
-      </c>
-      <c r="O6">
-        <v>1.83</v>
-      </c>
-      <c r="P6">
-        <v>1.4</v>
-      </c>
-      <c r="Q6">
-        <v>2.75</v>
-      </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S6">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="T6">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="U6">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="V6">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="W6">
-        <v>2.33</v>
+        <v>0.9</v>
       </c>
       <c r="X6">
-        <v>1.78</v>
+        <v>1.11</v>
       </c>
       <c r="Y6">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="Z6">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AA6">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="AB6">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="AC6">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AG6">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="AH6">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AI6">
-        <v>2.23</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1310,13 +1310,13 @@
         <v>73</v>
       </c>
       <c r="G7">
-        <v>1.51</v>
+        <v>2.55</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I7">
-        <v>5.4</v>
+        <v>2.35</v>
       </c>
       <c r="J7">
         <v>1.04</v>
@@ -1331,70 +1331,70 @@
         <v>3.75</v>
       </c>
       <c r="N7">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O7">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="P7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q7">
+        <v>3.25</v>
+      </c>
+      <c r="R7">
+        <v>1.62</v>
+      </c>
+      <c r="S7">
+        <v>2.2</v>
+      </c>
+      <c r="T7">
+        <v>1.44</v>
+      </c>
+      <c r="U7">
+        <v>1.29</v>
+      </c>
+      <c r="V7">
+        <v>1.53</v>
+      </c>
+      <c r="W7">
+        <v>1.67</v>
+      </c>
+      <c r="X7">
+        <v>1.4</v>
+      </c>
+      <c r="Y7">
+        <v>1.48</v>
+      </c>
+      <c r="Z7">
+        <v>1.6</v>
+      </c>
+      <c r="AA7">
+        <v>3.08</v>
+      </c>
+      <c r="AB7">
         <v>3</v>
-      </c>
-      <c r="R7">
-        <v>1.9</v>
-      </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>1.15</v>
-      </c>
-      <c r="U7">
-        <v>1.22</v>
-      </c>
-      <c r="V7">
-        <v>2.5</v>
-      </c>
-      <c r="W7">
-        <v>2.22</v>
-      </c>
-      <c r="X7">
-        <v>0.78</v>
-      </c>
-      <c r="Y7">
-        <v>1.45</v>
-      </c>
-      <c r="Z7">
-        <v>1.03</v>
-      </c>
-      <c r="AA7">
-        <v>2.48</v>
-      </c>
-      <c r="AB7">
-        <v>1.38</v>
       </c>
       <c r="AC7">
         <v>8</v>
       </c>
       <c r="AD7">
-        <v>4</v>
+        <v>1.55</v>
       </c>
       <c r="AE7">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="AG7">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AH7">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="AI7">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1417,91 +1417,91 @@
         <v>74</v>
       </c>
       <c r="G8">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="H8">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I8">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L8">
+        <v>1.17</v>
+      </c>
+      <c r="M8">
+        <v>4.5</v>
+      </c>
+      <c r="N8">
+        <v>1.45</v>
+      </c>
+      <c r="O8">
+        <v>2.55</v>
+      </c>
+      <c r="P8">
+        <v>1.29</v>
+      </c>
+      <c r="Q8">
+        <v>3.5</v>
+      </c>
+      <c r="R8">
+        <v>1.5</v>
+      </c>
+      <c r="S8">
+        <v>2.5</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
         <v>1.25</v>
-      </c>
-      <c r="M8">
-        <v>3.75</v>
-      </c>
-      <c r="N8">
-        <v>1.7</v>
-      </c>
-      <c r="O8">
-        <v>2.03</v>
-      </c>
-      <c r="P8">
-        <v>1.36</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-      <c r="R8">
-        <v>1.67</v>
-      </c>
-      <c r="S8">
-        <v>2.1</v>
-      </c>
-      <c r="T8">
-        <v>1.4</v>
-      </c>
-      <c r="U8">
-        <v>1.3</v>
       </c>
       <c r="V8">
         <v>1.53</v>
       </c>
       <c r="W8">
-        <v>1.8</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X8">
-        <v>0.78</v>
+        <v>1.1</v>
       </c>
       <c r="Y8">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="Z8">
-        <v>1.39</v>
+        <v>1.14</v>
       </c>
       <c r="AA8">
-        <v>2.76</v>
+        <v>2.36</v>
       </c>
       <c r="AB8">
-        <v>1.8</v>
+        <v>2.06</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD8">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AG8">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AH8">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="AI8">
-        <v>2.85</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1524,91 +1524,91 @@
         <v>75</v>
       </c>
       <c r="G9">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="H9">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="I9">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="M9">
-        <v>4.72</v>
+        <v>4.75</v>
       </c>
       <c r="N9">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="O9">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="P9">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="Q9">
-        <v>3.4</v>
+        <v>3.64</v>
       </c>
       <c r="R9">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S9">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="T9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U9">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="V9">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W9">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="X9">
+        <v>0.7</v>
+      </c>
+      <c r="Y9">
+        <v>1.76</v>
+      </c>
+      <c r="Z9">
+        <v>1.27</v>
+      </c>
+      <c r="AA9">
+        <v>3.03</v>
+      </c>
+      <c r="AB9">
         <v>1.38</v>
       </c>
-      <c r="Y9">
-        <v>1.74</v>
-      </c>
-      <c r="Z9">
-        <v>1.33</v>
-      </c>
-      <c r="AA9">
-        <v>3.07</v>
-      </c>
-      <c r="AB9">
-        <v>1.47</v>
-      </c>
       <c r="AC9">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>3.14</v>
+        <v>4</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF9">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AG9">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="AH9">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="AI9">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1631,91 +1631,91 @@
         <v>76</v>
       </c>
       <c r="G10">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="H10">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I10">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="J10">
         <v>1.04</v>
       </c>
       <c r="K10">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="N10">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="O10">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P10">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="Q10">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="R10">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="S10">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="T10">
-        <v>1.18</v>
+        <v>1.58</v>
       </c>
       <c r="U10">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="V10">
-        <v>2.2</v>
+        <v>1.41</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="Z10">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="AA10">
-        <v>2.21</v>
+        <v>3</v>
       </c>
       <c r="AB10">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="AC10">
         <v>9</v>
       </c>
       <c r="AD10">
-        <v>2.48</v>
+        <v>1.86</v>
       </c>
       <c r="AE10">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AF10">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AG10">
-        <v>1.71</v>
+        <v>1.51</v>
       </c>
       <c r="AH10">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AI10">
-        <v>3</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1738,13 +1738,13 @@
         <v>77</v>
       </c>
       <c r="G11">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="H11">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I11">
-        <v>2.28</v>
+        <v>2.65</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1753,76 +1753,76 @@
         <v>11</v>
       </c>
       <c r="L11">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M11">
         <v>3.8</v>
       </c>
       <c r="N11">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="P11">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q11">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11">
         <v>2.15</v>
       </c>
       <c r="T11">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="U11">
         <v>1.28</v>
       </c>
       <c r="V11">
-        <v>1.41</v>
+        <v>1.65</v>
       </c>
       <c r="W11">
         <v>3</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="Z11">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="AB11">
-        <v>2.19</v>
+        <v>1.71</v>
       </c>
       <c r="AC11">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD11">
-        <v>1.86</v>
+        <v>2.47</v>
       </c>
       <c r="AE11">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AF11">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AG11">
-        <v>1.51</v>
+        <v>1.85</v>
       </c>
       <c r="AH11">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="AI11">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1845,13 +1845,13 @@
         <v>78</v>
       </c>
       <c r="G12">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H12">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="I12">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1866,10 +1866,10 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O12">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="P12">
         <v>1.31</v>
@@ -1952,91 +1952,91 @@
         <v>79</v>
       </c>
       <c r="G13">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="H13">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="J13">
         <v>1.04</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L13">
+        <v>1.26</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>1.75</v>
+      </c>
+      <c r="O13">
+        <v>1.95</v>
+      </c>
+      <c r="P13">
+        <v>1.34</v>
+      </c>
+      <c r="Q13">
+        <v>2.95</v>
+      </c>
+      <c r="R13">
+        <v>1.82</v>
+      </c>
+      <c r="S13">
+        <v>1.85</v>
+      </c>
+      <c r="T13">
+        <v>1.18</v>
+      </c>
+      <c r="U13">
         <v>1.23</v>
       </c>
-      <c r="M13">
-        <v>3.8</v>
-      </c>
-      <c r="N13">
-        <v>1.7</v>
-      </c>
-      <c r="O13">
-        <v>2.08</v>
-      </c>
-      <c r="P13">
-        <v>1.33</v>
-      </c>
-      <c r="Q13">
+      <c r="V13">
+        <v>2.2</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>1.18</v>
+      </c>
+      <c r="Z13">
+        <v>1.03</v>
+      </c>
+      <c r="AA13">
+        <v>2.21</v>
+      </c>
+      <c r="AB13">
+        <v>1.69</v>
+      </c>
+      <c r="AC13">
+        <v>9</v>
+      </c>
+      <c r="AD13">
+        <v>2.48</v>
+      </c>
+      <c r="AE13">
+        <v>1.21</v>
+      </c>
+      <c r="AF13">
+        <v>1.4</v>
+      </c>
+      <c r="AG13">
+        <v>1.71</v>
+      </c>
+      <c r="AH13">
+        <v>2.2</v>
+      </c>
+      <c r="AI13">
         <v>3</v>
-      </c>
-      <c r="R13">
-        <v>1.61</v>
-      </c>
-      <c r="S13">
-        <v>2.15</v>
-      </c>
-      <c r="T13">
-        <v>1.36</v>
-      </c>
-      <c r="U13">
-        <v>1.28</v>
-      </c>
-      <c r="V13">
-        <v>1.65</v>
-      </c>
-      <c r="W13">
-        <v>3</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>1.09</v>
-      </c>
-      <c r="Z13">
-        <v>2.09</v>
-      </c>
-      <c r="AA13">
-        <v>3.18</v>
-      </c>
-      <c r="AB13">
-        <v>1.71</v>
-      </c>
-      <c r="AC13">
-        <v>8.6</v>
-      </c>
-      <c r="AD13">
-        <v>2.47</v>
-      </c>
-      <c r="AE13">
-        <v>1.24</v>
-      </c>
-      <c r="AF13">
-        <v>1.46</v>
-      </c>
-      <c r="AG13">
-        <v>1.85</v>
-      </c>
-      <c r="AH13">
-        <v>2.37</v>
-      </c>
-      <c r="AI13">
-        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2059,13 +2059,13 @@
         <v>80</v>
       </c>
       <c r="G14">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="H14">
+        <v>3.75</v>
+      </c>
+      <c r="I14">
         <v>3.6</v>
-      </c>
-      <c r="I14">
-        <v>3.75</v>
       </c>
       <c r="J14">
         <v>1.04</v>
@@ -2083,7 +2083,7 @@
         <v>1.6</v>
       </c>
       <c r="O14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P14">
         <v>1.32</v>
@@ -2166,13 +2166,13 @@
         <v>81</v>
       </c>
       <c r="G15">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="H15">
-        <v>3.47</v>
+        <v>3.2</v>
       </c>
       <c r="I15">
-        <v>3.07</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1.04</v>
@@ -2187,10 +2187,10 @@
         <v>3.9</v>
       </c>
       <c r="N15">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O15">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="P15">
         <v>1.33</v>
@@ -2276,10 +2276,10 @@
         <v>1.65</v>
       </c>
       <c r="H16">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
-        <v>5.72</v>
+        <v>4.75</v>
       </c>
       <c r="J16">
         <v>1.07</v>
@@ -2294,10 +2294,10 @@
         <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="P16">
         <v>1.44</v>
@@ -2380,13 +2380,13 @@
         <v>83</v>
       </c>
       <c r="G17">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="H17">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="J17">
         <v>1.04</v>
@@ -2401,10 +2401,10 @@
         <v>3.75</v>
       </c>
       <c r="N17">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O17">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="P17">
         <v>1.36</v>
@@ -2487,13 +2487,13 @@
         <v>84</v>
       </c>
       <c r="G18">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H18">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J18">
         <v>1.1</v>
@@ -2508,10 +2508,10 @@
         <v>2.48</v>
       </c>
       <c r="N18">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="O18">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P18">
         <v>1.47</v>
@@ -2594,13 +2594,13 @@
         <v>85</v>
       </c>
       <c r="G19">
-        <v>3.94</v>
+        <v>4.6</v>
       </c>
       <c r="H19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I19">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J19">
         <v>1.06</v>
@@ -2615,10 +2615,10 @@
         <v>2.91</v>
       </c>
       <c r="N19">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P19">
         <v>1.44</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2">
         <v>45161</v>
@@ -2692,7 +2692,7 @@
         <v>45</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>65</v>
@@ -2701,96 +2701,96 @@
         <v>86</v>
       </c>
       <c r="G20">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="H20">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="I20">
-        <v>4.34</v>
+        <v>3.85</v>
       </c>
       <c r="J20">
         <v>1.09</v>
       </c>
       <c r="K20">
-        <v>6.83</v>
+        <v>7</v>
       </c>
       <c r="L20">
         <v>1.53</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="N20">
-        <v>2.46</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="P20">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q20">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R20">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S20">
+        <v>1.61</v>
+      </c>
+      <c r="T20">
+        <v>1.27</v>
+      </c>
+      <c r="U20">
+        <v>1.36</v>
+      </c>
+      <c r="V20">
+        <v>1.66</v>
+      </c>
+      <c r="W20">
+        <v>1.55</v>
+      </c>
+      <c r="X20">
+        <v>0.82</v>
+      </c>
+      <c r="Y20">
+        <v>1.52</v>
+      </c>
+      <c r="Z20">
+        <v>1.3</v>
+      </c>
+      <c r="AA20">
+        <v>2.82</v>
+      </c>
+      <c r="AB20">
         <v>1.62</v>
       </c>
-      <c r="T20">
-        <v>1.23</v>
-      </c>
-      <c r="U20">
-        <v>1.33</v>
-      </c>
-      <c r="V20">
-        <v>1.78</v>
-      </c>
-      <c r="W20">
-        <v>1.88</v>
-      </c>
-      <c r="X20">
-        <v>2</v>
-      </c>
-      <c r="Y20">
-        <v>1.88</v>
-      </c>
-      <c r="Z20">
-        <v>1.25</v>
-      </c>
-      <c r="AA20">
-        <v>3.13</v>
-      </c>
-      <c r="AB20">
-        <v>1.58</v>
-      </c>
       <c r="AC20">
-        <v>9.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="AD20">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="AE20">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AF20">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AG20">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="AH20">
-        <v>2.44</v>
+        <v>2.01</v>
       </c>
       <c r="AI20">
-        <v>3.28</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>45161</v>
@@ -2799,7 +2799,7 @@
         <v>45</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>66</v>
@@ -2808,91 +2808,91 @@
         <v>87</v>
       </c>
       <c r="G21">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="H21">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I21">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="J21">
         <v>1.09</v>
       </c>
       <c r="K21">
-        <v>7</v>
+        <v>6.83</v>
       </c>
       <c r="L21">
+        <v>1.53</v>
+      </c>
+      <c r="M21">
+        <v>2.5</v>
+      </c>
+      <c r="N21">
+        <v>2.55</v>
+      </c>
+      <c r="O21">
+        <v>1.45</v>
+      </c>
+      <c r="P21">
+        <v>1.57</v>
+      </c>
+      <c r="Q21">
+        <v>2.25</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
         <v>1.62</v>
       </c>
-      <c r="M21">
-        <v>2.3</v>
-      </c>
-      <c r="N21">
-        <v>2.75</v>
-      </c>
-      <c r="O21">
-        <v>1.4</v>
-      </c>
-      <c r="P21">
-        <v>1.55</v>
-      </c>
-      <c r="Q21">
-        <v>2.3</v>
-      </c>
-      <c r="R21">
-        <v>2.15</v>
-      </c>
-      <c r="S21">
-        <v>1.61</v>
-      </c>
       <c r="T21">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="U21">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V21">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="W21">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="X21">
-        <v>0.82</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>1.52</v>
+        <v>1.88</v>
       </c>
       <c r="Z21">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA21">
-        <v>2.82</v>
+        <v>3.13</v>
       </c>
       <c r="AB21">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AC21">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD21">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="AE21">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AF21">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AG21">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="AH21">
-        <v>2.01</v>
+        <v>2.44</v>
       </c>
       <c r="AI21">
-        <v>2.4</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2915,13 +2915,13 @@
         <v>88</v>
       </c>
       <c r="G22">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="H22">
-        <v>4.58</v>
+        <v>4.6</v>
       </c>
       <c r="I22">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -2936,10 +2936,10 @@
         <v>4.75</v>
       </c>
       <c r="N22">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O22">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="P22">
         <v>1.3</v>
